--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/2_Saved imports for using pumpfed irrigation.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/2_Saved imports for using pumpfed irrigation.xlsx
@@ -49,13 +49,13 @@
     <t>Poultry</t>
   </si>
   <si>
-    <t>Fossil-fuels</t>
-  </si>
-  <si>
     <t>Mining</t>
   </si>
   <si>
     <t>Food and beverages</t>
+  </si>
+  <si>
+    <t>Grain milling</t>
   </si>
   <si>
     <t>Other manufacturing</t>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.006203048844938053</v>
+        <v>-0.002247527348473</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.09874438120527884</v>
+        <v>-0.03129667599409913</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>-0.04725001886097147</v>
+        <v>-0.01750271479016874</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.790622442461199e-05</v>
+        <v>0.0001237981746555761</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4981096274352694</v>
+        <v>1.879731900798561</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.00141051289105576</v>
+        <v>0.01589735809830017</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-0.1043501644544449</v>
+        <v>-0.02092720430687223</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.05508712808659766</v>
+        <v>0.6818876732240824</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-4.988878781888047</v>
+        <v>-1.854042237529711</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-1.410572175834091</v>
+        <v>-0.4650446510760275</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>-0.0008366153584802305</v>
+        <v>0.2095491980234101</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>-28.7366144047719</v>
+        <v>-7.604063859873349</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>-6.902437803414614</v>
+        <v>-1.311198958407658</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.812427784250758</v>
+        <v>8.216585028243571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5.012601210693107e-05</v>
+        <v>0.0001726932808719973</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2341241157264449</v>
+        <v>1.705283199047699</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02825268173819495</v>
+        <v>0.4463367525204376</v>
       </c>
     </row>
   </sheetData>
